--- a/data/data_raw/eurostat/AT_rail_tracks_rail_if_line_tr.xlsx
+++ b/data/data_raw/eurostat/AT_rail_tracks_rail_if_line_tr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -752,6 +757,9 @@
       </c>
       <c r="AM2" t="n">
         <v>3339</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3291</v>
       </c>
     </row>
     <row r="3">
@@ -882,6 +890,9 @@
       <c r="AM3" t="n">
         <v>2236</v>
       </c>
+      <c r="AN3" t="n">
+        <v>2286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1011,6 +1022,9 @@
       <c r="AM4" t="n">
         <v>5575</v>
       </c>
+      <c r="AN4" t="n">
+        <v>5577</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1140,6 +1154,9 @@
       <c r="AM5" t="n">
         <v>1849</v>
       </c>
+      <c r="AN5" t="n">
+        <v>1869</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1269,6 +1286,9 @@
       <c r="AM6" t="n">
         <v>2167</v>
       </c>
+      <c r="AN6" t="n">
+        <v>2251</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1398,6 +1418,9 @@
       <c r="AM7" t="n">
         <v>4015</v>
       </c>
+      <c r="AN7" t="n">
+        <v>4119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1527,6 +1550,9 @@
       <c r="AM8" t="n">
         <v>1490</v>
       </c>
+      <c r="AN8" t="n">
+        <v>1422</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1656,6 +1682,9 @@
       <c r="AM9" t="n">
         <v>69</v>
       </c>
+      <c r="AN9" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1784,6 +1813,9 @@
       </c>
       <c r="AM10" t="n">
         <v>1560</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
